--- a/Proyecto2/Proyecto2.xlsx
+++ b/Proyecto2/Proyecto2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan\Documents\USAC\Redes1\Lab\redes1_201908355\Proyecto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB52CE9E-7333-47E1-9478-861DB2539111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF66CEFB-FAB7-4E3E-85FE-0B01B719B2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{083D0B72-1FF1-48C3-9DC4-B77A1CA1ACAF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="296">
   <si>
     <t>Dispositivo</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Sede Jutiapa</t>
   </si>
   <si>
-    <t>VPC 14</t>
-  </si>
-  <si>
-    <t>VPC 8</t>
-  </si>
-  <si>
     <t>VPC 6</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>/29</t>
   </si>
   <si>
-    <t>VPC 15</t>
-  </si>
-  <si>
     <t>VENTAS (VLAN 37)</t>
   </si>
   <si>
@@ -379,15 +370,9 @@
     <t>192.178.15.13</t>
   </si>
   <si>
-    <t>192.178.15.14</t>
-  </si>
-  <si>
     <t>192.178.15.15</t>
   </si>
   <si>
-    <t>192.178.15.16</t>
-  </si>
-  <si>
     <t>192.178.15.17</t>
   </si>
   <si>
@@ -607,15 +592,6 @@
     <t>PC17</t>
   </si>
   <si>
-    <t>PC5</t>
-  </si>
-  <si>
-    <t>PC6</t>
-  </si>
-  <si>
-    <t>PC7</t>
-  </si>
-  <si>
     <t>192.158.15.2</t>
   </si>
   <si>
@@ -920,6 +896,24 @@
   </si>
   <si>
     <t>Servidor</t>
+  </si>
+  <si>
+    <t>VPC 0</t>
+  </si>
+  <si>
+    <t>VPC 1</t>
+  </si>
+  <si>
+    <t>VPC 4</t>
+  </si>
+  <si>
+    <t>PC18</t>
+  </si>
+  <si>
+    <t>PC20</t>
+  </si>
+  <si>
+    <t>PC19</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1070,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1094,6 +1088,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1103,22 +1112,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1465,102 +1459,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4039E25A-7ED2-4A9D-9D9B-C0F7E7B7430E}">
   <dimension ref="A1:AC85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
     <col min="12" max="12" width="3" customWidth="1"/>
     <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
     <col min="18" max="18" width="3" customWidth="1"/>
     <col min="19" max="19" width="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" customWidth="1"/>
     <col min="24" max="24" width="3" customWidth="1"/>
     <col min="25" max="25" width="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="H1" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="N1" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
-      <c r="T1" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="Z1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
+      <c r="T1" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="Z1" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="T2" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="Z2" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
@@ -1633,76 +1627,76 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>184</v>
+        <v>294</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S4">
         <v>1</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y4">
         <v>1</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>293</v>
+        <v>184</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1710,76 +1704,76 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S5">
         <v>2</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y5">
         <v>2</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -1787,76 +1781,76 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M6">
         <v>3</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S6">
         <v>3</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y6">
         <v>3</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1864,76 +1858,76 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M7">
         <v>4</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S7">
         <v>4</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y7">
         <v>4</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1941,76 +1935,76 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M8">
         <v>5</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S8">
         <v>5</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y8">
         <v>5</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -2018,19 +2012,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -2039,46 +2033,46 @@
         <v>6</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S9">
         <v>6</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y9">
         <v>6</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -2086,16 +2080,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2104,58 +2098,58 @@
         <v>9</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M10">
         <v>7</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S10">
         <v>7</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y10">
         <v>7</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -2163,76 +2157,76 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M11">
         <v>8</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S11">
         <v>8</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y11">
         <v>8</v>
       </c>
       <c r="Z11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB11" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AA11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="AC11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -2240,76 +2234,76 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M12">
         <v>9</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S12">
         <v>9</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y12">
         <v>9</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -2317,81 +2311,81 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M13">
         <v>10</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S13">
         <v>10</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y13">
         <v>10</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -2400,40 +2394,40 @@
         <v>5</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M14">
         <v>11</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="T14" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
       <c r="W14" s="11"/>
       <c r="Z14" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
@@ -2444,76 +2438,76 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15">
         <v>6</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M15">
         <v>12</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S15">
         <v>1</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y15">
         <v>1</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>294</v>
+        <v>185</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -2521,34 +2515,34 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G16">
         <v>7</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -2557,31 +2551,31 @@
         <v>2</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y16">
         <v>2</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -2589,76 +2583,76 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17">
         <v>8</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S17">
         <v>3</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y17">
         <v>3</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -2666,81 +2660,81 @@
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G18">
         <v>9</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M18">
         <v>2</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S18">
         <v>4</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y18">
         <v>4</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -2749,61 +2743,61 @@
         <v>10</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M19">
         <v>3</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S19">
         <v>5</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y19">
         <v>5</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -2811,64 +2805,64 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G20">
         <v>11</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M20">
         <v>4</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S20">
         <v>6</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
@@ -2879,76 +2873,76 @@
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G21">
         <v>12</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M21">
         <v>5</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S21">
         <v>7</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y21">
         <v>1</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
@@ -2956,76 +2950,76 @@
         <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G22">
         <v>13</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M22">
         <v>6</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S22">
         <v>8</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y22">
         <v>2</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AC22" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -3033,76 +3027,76 @@
         <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G23">
         <v>14</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M23">
         <v>7</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S23">
         <v>9</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y23">
         <v>3</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB23" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AC23" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -3110,76 +3104,76 @@
         <v>5</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G24">
         <v>15</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M24">
         <v>8</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S24">
         <v>10</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y24">
         <v>4</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB24" s="3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AC24" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -3187,76 +3181,76 @@
         <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G25">
         <v>16</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M25">
         <v>9</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S25">
         <v>11</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y25">
         <v>5</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB25" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AC25" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
@@ -3264,76 +3258,76 @@
         <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G26">
         <v>17</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M26">
         <v>10</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S26">
         <v>12</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y26">
         <v>6</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB26" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AC26" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -3341,67 +3335,67 @@
         <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G27">
         <v>18</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
       <c r="S27">
         <v>13</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y27">
         <v>7</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB27" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AC27" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
@@ -3409,76 +3403,76 @@
         <v>9</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G28">
         <v>19</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M28">
         <v>1</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S28">
         <v>14</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y28">
         <v>8</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB28" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
@@ -3486,76 +3480,76 @@
         <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G29">
         <v>20</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M29">
         <v>2</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>190</v>
+        <v>285</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S29">
         <v>15</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y29">
         <v>9</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AC29" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
@@ -3563,61 +3557,61 @@
         <v>11</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M30">
         <v>3</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S30">
         <v>16</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y30">
         <v>10</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -3625,61 +3619,61 @@
         <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M31">
         <v>4</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S31">
         <v>17</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y31">
         <v>11</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA31" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AC31" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
@@ -3687,61 +3681,61 @@
         <v>13</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M32">
         <v>5</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S32">
         <v>18</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y32">
         <v>12</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB32" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
@@ -3749,61 +3743,61 @@
         <v>14</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M33">
         <v>6</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S33">
         <v>19</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y33">
         <v>13</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA33" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB33" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AC33" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
@@ -3811,61 +3805,61 @@
         <v>15</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M34">
         <v>7</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S34">
         <v>20</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y34">
         <v>14</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB34" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AC34" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -3873,61 +3867,61 @@
         <v>16</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M35">
         <v>8</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S35">
         <v>21</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y35">
         <v>15</v>
       </c>
       <c r="Z35" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA35" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB35" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC35" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
@@ -3935,61 +3929,61 @@
         <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M36">
         <v>9</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S36">
         <v>22</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y36">
         <v>16</v>
       </c>
       <c r="Z36" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA36" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AC36" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
@@ -3997,61 +3991,61 @@
         <v>18</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M37">
         <v>10</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S37">
         <v>23</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y37">
         <v>17</v>
       </c>
       <c r="Z37" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA37" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB37" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="AC37" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
@@ -4059,61 +4053,61 @@
         <v>19</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M38">
         <v>11</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S38">
         <v>24</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y38">
         <v>18</v>
       </c>
       <c r="Z38" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA38" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB38" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AC38" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
@@ -4121,61 +4115,61 @@
         <v>20</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M39">
         <v>12</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S39">
         <v>25</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y39">
         <v>19</v>
       </c>
       <c r="Z39" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA39" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB39" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AC39" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
@@ -4183,61 +4177,61 @@
         <v>21</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M40">
         <v>13</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S40">
         <v>26</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y40">
         <v>20</v>
       </c>
       <c r="Z40" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA40" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB40" s="3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AC40" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
@@ -4245,61 +4239,61 @@
         <v>22</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M41">
         <v>14</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S41">
         <v>27</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y41">
         <v>21</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA41" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB41" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AC41" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
@@ -4307,61 +4301,61 @@
         <v>23</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M42">
         <v>15</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S42">
         <v>28</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y42">
         <v>22</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA42" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB42" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AC42" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
@@ -4369,61 +4363,61 @@
         <v>24</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M43">
         <v>16</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S43">
         <v>29</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y43">
         <v>23</v>
       </c>
       <c r="Z43" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA43" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB43" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AC43" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
@@ -4431,105 +4425,105 @@
         <v>25</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M44">
         <v>17</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S44">
         <v>30</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y44">
         <v>24</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA44" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB44" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AC44" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
+      <c r="B45" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
       <c r="M45">
         <v>18</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="T45" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
+        <v>284</v>
+      </c>
+      <c r="T45" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
       <c r="Y45">
         <v>25</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA45" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB45" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AC45" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
@@ -4537,46 +4531,46 @@
         <v>1</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M46">
         <v>19</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S46">
         <v>1</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V46" s="4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="W46" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
@@ -4584,46 +4578,46 @@
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M47">
         <v>20</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S47">
         <v>2</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U47" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V47" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="W47" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
@@ -4631,46 +4625,46 @@
         <v>3</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M48">
         <v>21</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S48">
         <v>3</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V48" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="W48" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -4678,46 +4672,46 @@
         <v>4</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M49">
         <v>22</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S49">
         <v>4</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U49" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V49" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="W49" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -4725,46 +4719,46 @@
         <v>5</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M50">
         <v>23</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S50">
         <v>5</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V50" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="W50" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -4772,46 +4766,46 @@
         <v>6</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M51">
         <v>24</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S51">
         <v>6</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V51" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="W51" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
@@ -4819,46 +4813,46 @@
         <v>7</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M52">
         <v>25</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S52">
         <v>7</v>
       </c>
       <c r="T52" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="W52" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -4866,46 +4860,46 @@
         <v>8</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M53">
         <v>26</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S53">
         <v>8</v>
       </c>
       <c r="T53" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U53" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V53" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="W53" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -4913,46 +4907,46 @@
         <v>9</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M54">
         <v>27</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S54">
         <v>9</v>
       </c>
       <c r="T54" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="W54" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -4960,46 +4954,46 @@
         <v>10</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M55">
         <v>28</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S55">
         <v>10</v>
       </c>
       <c r="T55" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U55" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V55" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="W55" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -5007,46 +5001,46 @@
         <v>11</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M56">
         <v>29</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S56">
         <v>11</v>
       </c>
       <c r="T56" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V56" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="W56" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -5054,46 +5048,46 @@
         <v>12</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M57">
         <v>30</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S57">
         <v>12</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U57" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V57" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="W57" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -5101,31 +5095,31 @@
         <v>31</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S58">
         <v>13</v>
       </c>
       <c r="T58" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U58" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V58" s="4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W58" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -5133,31 +5127,31 @@
         <v>32</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S59">
         <v>14</v>
       </c>
       <c r="T59" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V59" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="W59" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -5165,31 +5159,31 @@
         <v>33</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="S60">
         <v>15</v>
       </c>
       <c r="T60" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="U60" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V60" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="W60" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -5197,16 +5191,16 @@
         <v>34</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -5214,16 +5208,16 @@
         <v>35</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -5231,41 +5225,41 @@
         <v>36</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N64" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
+      <c r="N64" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
     </row>
     <row r="65" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M65">
         <v>1</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="13:17" x14ac:dyDescent="0.25">
@@ -5273,16 +5267,16 @@
         <v>2</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="13:17" x14ac:dyDescent="0.25">
@@ -5290,16 +5284,16 @@
         <v>3</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="13:17" x14ac:dyDescent="0.25">
@@ -5307,16 +5301,16 @@
         <v>4</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="13:17" x14ac:dyDescent="0.25">
@@ -5324,16 +5318,16 @@
         <v>5</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="13:17" x14ac:dyDescent="0.25">
@@ -5341,16 +5335,16 @@
         <v>6</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="13:17" x14ac:dyDescent="0.25">
@@ -5358,16 +5352,16 @@
         <v>7</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q71" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="13:17" x14ac:dyDescent="0.25">
@@ -5375,16 +5369,16 @@
         <v>8</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="13:17" x14ac:dyDescent="0.25">
@@ -5392,16 +5386,16 @@
         <v>9</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="13:17" x14ac:dyDescent="0.25">
@@ -5409,16 +5403,16 @@
         <v>10</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="13:17" x14ac:dyDescent="0.25">
@@ -5426,16 +5420,16 @@
         <v>11</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="13:17" x14ac:dyDescent="0.25">
@@ -5443,16 +5437,16 @@
         <v>12</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="13:17" x14ac:dyDescent="0.25">
@@ -5460,16 +5454,16 @@
         <v>13</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q77" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="13:17" x14ac:dyDescent="0.25">
@@ -5477,16 +5471,16 @@
         <v>14</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q78" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="13:17" x14ac:dyDescent="0.25">
@@ -5494,16 +5488,16 @@
         <v>15</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q79" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="13:17" x14ac:dyDescent="0.25">
@@ -5511,16 +5505,16 @@
         <v>16</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q80" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="13:17" x14ac:dyDescent="0.25">
@@ -5528,16 +5522,16 @@
         <v>17</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q81" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="13:17" x14ac:dyDescent="0.25">
@@ -5545,16 +5539,16 @@
         <v>18</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P82" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="Q82" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="13:17" x14ac:dyDescent="0.25">
@@ -5562,16 +5556,16 @@
         <v>19</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q83" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="13:17" x14ac:dyDescent="0.25">
@@ -5579,16 +5573,16 @@
         <v>20</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Q84" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="13:17" x14ac:dyDescent="0.25">
@@ -5596,41 +5590,41 @@
         <v>21</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q85" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="Z20:AC20"/>
+    <mergeCell ref="N16:Q16"/>
     <mergeCell ref="N27:Q27"/>
     <mergeCell ref="N64:Q64"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="T14:W14"/>
     <mergeCell ref="T45:W45"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="Z20:AC20"/>
-    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B45:E45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5649,10 +5643,10 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
